--- a/doc/Art_breu_de_Ramón_Llull.xlsx
+++ b/doc/Art_breu_de_Ramón_Llull.xlsx
@@ -1128,7 +1128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1281,15 +1281,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1488,39 +1479,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,6 +1498,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,10 +1945,10 @@
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115289</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>2613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1981,7 +1972,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7701642" y="16423822"/>
-          <a:ext cx="3843647" cy="4762499"/>
+          <a:ext cx="4735287" cy="5867291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,7 +2646,7 @@
         <f>Alfabet!P3</f>
         <v>diferència</v>
       </c>
-      <c r="N3" s="23" t="str">
+      <c r="N3" s="71" t="str">
         <f>Alfabet!U3</f>
         <v>L</v>
       </c>
@@ -2669,7 +2660,7 @@
         <f>Alfabet!P4</f>
         <v>concordança</v>
       </c>
-      <c r="N4" s="23" t="str">
+      <c r="N4" s="71" t="str">
         <f>Alfabet!U4</f>
         <v>M</v>
       </c>
@@ -2683,7 +2674,7 @@
         <f>Alfabet!P5</f>
         <v>contrarietat</v>
       </c>
-      <c r="N5" s="23" t="str">
+      <c r="N5" s="71" t="str">
         <f>Alfabet!U5</f>
         <v>N</v>
       </c>
@@ -2697,7 +2688,7 @@
         <f>Alfabet!P6</f>
         <v>començament</v>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="72" t="str">
         <f>Alfabet!U6</f>
         <v>O</v>
       </c>
@@ -2711,7 +2702,7 @@
         <f>Alfabet!P7</f>
         <v>mitjà</v>
       </c>
-      <c r="N7" s="41" t="str">
+      <c r="N7" s="72" t="str">
         <f>Alfabet!U7</f>
         <v>P</v>
       </c>
@@ -2725,7 +2716,7 @@
         <f>Alfabet!P8</f>
         <v>fi</v>
       </c>
-      <c r="N8" s="41" t="str">
+      <c r="N8" s="72" t="str">
         <f>Alfabet!U8</f>
         <v>Q</v>
       </c>
@@ -2739,7 +2730,7 @@
         <f>Alfabet!P9</f>
         <v>majoritat</v>
       </c>
-      <c r="N9" s="25" t="str">
+      <c r="N9" s="73" t="str">
         <f>Alfabet!U9</f>
         <v>R</v>
       </c>
@@ -2753,7 +2744,7 @@
         <f>Alfabet!P10</f>
         <v>igualtat</v>
       </c>
-      <c r="N10" s="25" t="str">
+      <c r="N10" s="79" t="str">
         <f>Alfabet!U10</f>
         <v>U</v>
       </c>
@@ -2767,7 +2758,7 @@
         <f>Alfabet!P11</f>
         <v>menoritat</v>
       </c>
-      <c r="N11" s="25" t="str">
+      <c r="N11" s="79" t="str">
         <f>Alfabet!U11</f>
         <v>W</v>
       </c>
@@ -2780,7 +2771,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2813,42 +2805,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:43" x14ac:dyDescent="0.25">
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AB1" s="74" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="83"/>
+      <c r="AB1" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="76"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="83"/>
     </row>
     <row r="2" spans="11:43" x14ac:dyDescent="0.25">
       <c r="K2" s="5" t="s">
@@ -3580,211 +3572,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="12:72" x14ac:dyDescent="0.25">
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="79"/>
-      <c r="BS1" s="79"/>
-      <c r="BT1" s="80"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="88"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="88"/>
+      <c r="BQ1" s="88"/>
+      <c r="BR1" s="88"/>
+      <c r="BS1" s="88"/>
+      <c r="BT1" s="89"/>
     </row>
     <row r="2" spans="12:72" x14ac:dyDescent="0.25">
       <c r="L2" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="84">
         <v>1</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="77">
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="85">
         <v>2</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="85">
         <v>2</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="81">
+      <c r="R2" s="85"/>
+      <c r="S2" s="84">
         <v>3</v>
       </c>
-      <c r="T2" s="77">
+      <c r="T2" s="85">
         <v>3</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="77">
+      <c r="U2" s="86"/>
+      <c r="V2" s="85">
         <v>4</v>
       </c>
-      <c r="W2" s="77">
+      <c r="W2" s="85">
         <v>4</v>
       </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="81">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="77">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="77">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="77">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="81">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="77">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="77">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="77">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="81">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="84">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="85">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="85">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="85">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="84">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="85">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="85">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="85">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="84">
         <v>9</v>
       </c>
-      <c r="AL2" s="77">
+      <c r="AL2" s="85">
         <v>9</v>
       </c>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="77">
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="85">
         <v>10</v>
       </c>
-      <c r="AO2" s="77">
+      <c r="AO2" s="85">
         <v>10</v>
       </c>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="81">
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="84">
         <v>11</v>
       </c>
-      <c r="AR2" s="77">
+      <c r="AR2" s="85">
         <v>11</v>
       </c>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="77">
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="85">
         <v>12</v>
       </c>
-      <c r="AU2" s="77">
+      <c r="AU2" s="85">
         <v>12</v>
       </c>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="81">
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="84">
         <v>13</v>
       </c>
-      <c r="AX2" s="77">
+      <c r="AX2" s="85">
         <v>13</v>
       </c>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="77">
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="85">
         <v>14</v>
       </c>
-      <c r="BA2" s="77">
+      <c r="BA2" s="85">
         <v>14</v>
       </c>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="81">
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="84">
         <v>15</v>
       </c>
-      <c r="BD2" s="77">
+      <c r="BD2" s="85">
         <v>15</v>
       </c>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="77">
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="85">
         <v>16</v>
       </c>
-      <c r="BG2" s="77">
+      <c r="BG2" s="85">
         <v>16</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="81">
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="84">
         <v>17</v>
       </c>
-      <c r="BJ2" s="77">
+      <c r="BJ2" s="85">
         <v>17</v>
       </c>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="77">
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="85">
         <v>18</v>
       </c>
-      <c r="BM2" s="77">
+      <c r="BM2" s="85">
         <v>18</v>
       </c>
-      <c r="BN2" s="77"/>
-      <c r="BO2" s="81">
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="84">
         <v>19</v>
       </c>
-      <c r="BP2" s="77">
+      <c r="BP2" s="85">
         <v>19</v>
       </c>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="77">
+      <c r="BQ2" s="86"/>
+      <c r="BR2" s="85">
         <v>20</v>
       </c>
-      <c r="BS2" s="77">
+      <c r="BS2" s="85">
         <v>20</v>
       </c>
-      <c r="BT2" s="82"/>
+      <c r="BT2" s="86"/>
     </row>
     <row r="3" spans="12:72" x14ac:dyDescent="0.25">
       <c r="L3" s="53">
@@ -22217,11 +22209,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="M1:BT1"/>
     <mergeCell ref="M2:O2"/>
@@ -22238,6 +22225,11 @@
     <mergeCell ref="BO2:BQ2"/>
     <mergeCell ref="BR2:BT2"/>
     <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -22271,13 +22263,13 @@
       <c r="P1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="84"/>
+      <c r="T1" s="91"/>
     </row>
     <row r="2" spans="14:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O2" s="26" t="s">
@@ -22298,6 +22290,9 @@
       <c r="T2" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="U2" s="80" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="14:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N3" s="21" t="s">
@@ -22390,7 +22385,7 @@
       <c r="Q6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="86" t="s">
+      <c r="R6" s="75" t="s">
         <v>77</v>
       </c>
       <c r="S6" s="24" t="s">
@@ -22485,7 +22480,7 @@
       <c r="N10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="88" t="s">
+      <c r="O10" s="77" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -22500,10 +22495,10 @@
       <c r="S10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="87" t="s">
+      <c r="T10" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="90" t="s">
+      <c r="U10" s="79" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22529,32 +22524,29 @@
       <c r="T11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="79" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N12" s="91" t="s">
-        <v>125</v>
-      </c>
       <c r="O12" s="11" t="s">
         <v>123</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="89" t="s">
+      <c r="Q12" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="74" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="O13" s="85" t="s">
+      <c r="O13" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="Q13" s="85" t="s">
+      <c r="Q13" s="74" t="s">
         <v>119</v>
       </c>
     </row>
